--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.822558333333333</v>
+        <v>23.94933966666666</v>
       </c>
       <c r="H2">
-        <v>23.467675</v>
+        <v>71.84801899999999</v>
       </c>
       <c r="I2">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="J2">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.4763</v>
+        <v>1.728078666666667</v>
       </c>
       <c r="N2">
-        <v>4.428900000000001</v>
+        <v>5.184236</v>
       </c>
       <c r="O2">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401176</v>
       </c>
       <c r="P2">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401175</v>
       </c>
       <c r="Q2">
-        <v>11.5484428675</v>
+        <v>41.38634295872044</v>
       </c>
       <c r="R2">
-        <v>103.9359858075</v>
+        <v>372.477086628484</v>
       </c>
       <c r="S2">
-        <v>1.645816037222729E-05</v>
+        <v>5.640473421278687E-05</v>
       </c>
       <c r="T2">
-        <v>1.645816037222729E-05</v>
+        <v>5.640473421278687E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.822558333333333</v>
+        <v>23.94933966666666</v>
       </c>
       <c r="H3">
-        <v>23.467675</v>
+        <v>71.84801899999999</v>
       </c>
       <c r="I3">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="J3">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>234.515686</v>
       </c>
       <c r="O3">
-        <v>0.6983045082736508</v>
+        <v>0.6765388985664503</v>
       </c>
       <c r="P3">
-        <v>0.6983045082736506</v>
+        <v>0.6765388985664502</v>
       </c>
       <c r="Q3">
-        <v>611.5042112722278</v>
+        <v>1872.165273725115</v>
       </c>
       <c r="R3">
-        <v>5503.53790145005</v>
+        <v>16849.48746352603</v>
       </c>
       <c r="S3">
-        <v>0.000871479773756666</v>
+        <v>0.002551541815912583</v>
       </c>
       <c r="T3">
-        <v>0.0008714797737566659</v>
+        <v>0.002551541815912583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.822558333333333</v>
+        <v>23.94933966666666</v>
       </c>
       <c r="H4">
-        <v>23.467675</v>
+        <v>71.84801899999999</v>
       </c>
       <c r="I4">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="J4">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.14343433333334</v>
+        <v>35.284818</v>
       </c>
       <c r="N4">
-        <v>96.43030300000001</v>
+        <v>105.854454</v>
       </c>
       <c r="O4">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="P4">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="Q4">
-        <v>251.4438901061695</v>
+        <v>845.0480913585139</v>
       </c>
       <c r="R4">
-        <v>2262.995010955525</v>
+        <v>7605.432822226626</v>
       </c>
       <c r="S4">
-        <v>0.0003583430177959472</v>
+        <v>0.001151701493355949</v>
       </c>
       <c r="T4">
-        <v>0.0003583430177959471</v>
+        <v>0.001151701493355949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.822558333333333</v>
+        <v>23.94933966666666</v>
       </c>
       <c r="H5">
-        <v>23.467675</v>
+        <v>71.84801899999999</v>
       </c>
       <c r="I5">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="J5">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1536526666666667</v>
+        <v>0.361994</v>
       </c>
       <c r="N5">
-        <v>0.460958</v>
+        <v>1.085982</v>
       </c>
       <c r="O5">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="P5">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="Q5">
-        <v>1.201956948072222</v>
+        <v>8.669517263295331</v>
       </c>
       <c r="R5">
-        <v>10.81761253265</v>
+        <v>78.025655369658</v>
       </c>
       <c r="S5">
-        <v>1.712958226390559E-06</v>
+        <v>1.181553580312908E-05</v>
       </c>
       <c r="T5">
-        <v>1.712958226390559E-06</v>
+        <v>1.181553580312908E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>18113.320312</v>
       </c>
       <c r="I6">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751565</v>
       </c>
       <c r="J6">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751567</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.4763</v>
+        <v>1.728078666666667</v>
       </c>
       <c r="N6">
-        <v>4.428900000000001</v>
+        <v>5.184236</v>
       </c>
       <c r="O6">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401176</v>
       </c>
       <c r="P6">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401175</v>
       </c>
       <c r="Q6">
-        <v>8913.564925535202</v>
+        <v>10433.7474712224</v>
       </c>
       <c r="R6">
-        <v>80222.0843298168</v>
+        <v>93903.72724100163</v>
       </c>
       <c r="S6">
-        <v>0.01270308756911019</v>
+        <v>0.01421997477633216</v>
       </c>
       <c r="T6">
-        <v>0.01270308756911019</v>
+        <v>0.01421997477633216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>18113.320312</v>
       </c>
       <c r="I7">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751565</v>
       </c>
       <c r="J7">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751567</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>234.515686</v>
       </c>
       <c r="O7">
-        <v>0.6983045082736508</v>
+        <v>0.6765388985664503</v>
       </c>
       <c r="P7">
-        <v>0.6983045082736506</v>
+        <v>0.6765388985664502</v>
       </c>
       <c r="Q7">
         <v>471984.1931896016</v>
@@ -883,10 +883,10 @@
         <v>4247857.738706415</v>
       </c>
       <c r="S7">
-        <v>0.6726440641215538</v>
+        <v>0.6432591300963602</v>
       </c>
       <c r="T7">
-        <v>0.6726440641215536</v>
+        <v>0.64325913009636</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>18113.320312</v>
       </c>
       <c r="I8">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751565</v>
       </c>
       <c r="J8">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751567</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.14343433333334</v>
+        <v>35.284818</v>
       </c>
       <c r="N8">
-        <v>96.43030300000001</v>
+        <v>105.854454</v>
       </c>
       <c r="O8">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="P8">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="Q8">
-        <v>194074.7740024683</v>
+        <v>213041.7368615411</v>
       </c>
       <c r="R8">
-        <v>1746672.966022215</v>
+        <v>1917375.63175387</v>
       </c>
       <c r="S8">
-        <v>0.2765839335556977</v>
+        <v>0.2903509149356652</v>
       </c>
       <c r="T8">
-        <v>0.2765839335556977</v>
+        <v>0.2903509149356651</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>18113.320312</v>
       </c>
       <c r="I9">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751565</v>
       </c>
       <c r="J9">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751567</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1536526666666667</v>
+        <v>0.361994</v>
       </c>
       <c r="N9">
-        <v>0.460958</v>
+        <v>1.085982</v>
       </c>
       <c r="O9">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="P9">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="Q9">
-        <v>927.719989375433</v>
+        <v>2185.637757674042</v>
       </c>
       <c r="R9">
-        <v>8349.479904378897</v>
+        <v>19670.73981906638</v>
       </c>
       <c r="S9">
-        <v>0.001322131870144256</v>
+        <v>0.002978768066799187</v>
       </c>
       <c r="T9">
-        <v>0.001322131870144256</v>
+        <v>0.002978768066799187</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>221.4914043333333</v>
+        <v>285.3476563333333</v>
       </c>
       <c r="H10">
-        <v>664.474213</v>
+        <v>856.042969</v>
       </c>
       <c r="I10">
-        <v>0.03533625598942085</v>
+        <v>0.0449356144375536</v>
       </c>
       <c r="J10">
-        <v>0.03533625598942085</v>
+        <v>0.04493561443755361</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.4763</v>
+        <v>1.728078666666667</v>
       </c>
       <c r="N10">
-        <v>4.428900000000001</v>
+        <v>5.184236</v>
       </c>
       <c r="O10">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401176</v>
       </c>
       <c r="P10">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401175</v>
       </c>
       <c r="Q10">
-        <v>326.9877602173</v>
+        <v>493.1031974929649</v>
       </c>
       <c r="R10">
-        <v>2942.8898419557</v>
+        <v>4437.928777436684</v>
       </c>
       <c r="S10">
-        <v>0.0004660036906409994</v>
+        <v>0.0006720418574264372</v>
       </c>
       <c r="T10">
-        <v>0.0004660036906409993</v>
+        <v>0.0006720418574264372</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>221.4914043333333</v>
+        <v>285.3476563333333</v>
       </c>
       <c r="H11">
-        <v>664.474213</v>
+        <v>856.042969</v>
       </c>
       <c r="I11">
-        <v>0.03533625598942085</v>
+        <v>0.0449356144375536</v>
       </c>
       <c r="J11">
-        <v>0.03533625598942085</v>
+        <v>0.04493561443755361</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>234.515686</v>
       </c>
       <c r="O11">
-        <v>0.6983045082736508</v>
+        <v>0.6765388985664503</v>
       </c>
       <c r="P11">
-        <v>0.6983045082736506</v>
+        <v>0.6765388985664502</v>
       </c>
       <c r="Q11">
-        <v>17314.40287677835</v>
+        <v>22306.1671245013</v>
       </c>
       <c r="R11">
-        <v>155829.6258910051</v>
+        <v>200755.5041205117</v>
       </c>
       <c r="S11">
-        <v>0.02467546686292437</v>
+        <v>0.0304006910979892</v>
       </c>
       <c r="T11">
-        <v>0.02467546686292437</v>
+        <v>0.0304006910979892</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>221.4914043333333</v>
+        <v>285.3476563333333</v>
       </c>
       <c r="H12">
-        <v>664.474213</v>
+        <v>856.042969</v>
       </c>
       <c r="I12">
-        <v>0.03533625598942085</v>
+        <v>0.0449356144375536</v>
       </c>
       <c r="J12">
-        <v>0.03533625598942085</v>
+        <v>0.04493561443755361</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.14343433333334</v>
+        <v>35.284818</v>
       </c>
       <c r="N12">
-        <v>96.43030300000001</v>
+        <v>105.854454</v>
       </c>
       <c r="O12">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="P12">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="Q12">
-        <v>7119.494410586283</v>
+        <v>10068.44012044821</v>
       </c>
       <c r="R12">
-        <v>64075.44969527654</v>
+        <v>90615.96108403393</v>
       </c>
       <c r="S12">
-        <v>0.01014628397291197</v>
+        <v>0.01372210367796168</v>
       </c>
       <c r="T12">
-        <v>0.01014628397291197</v>
+        <v>0.01372210367796168</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>221.4914043333333</v>
+        <v>285.3476563333333</v>
       </c>
       <c r="H13">
-        <v>664.474213</v>
+        <v>856.042969</v>
       </c>
       <c r="I13">
-        <v>0.03533625598942085</v>
+        <v>0.0449356144375536</v>
       </c>
       <c r="J13">
-        <v>0.03533625598942085</v>
+        <v>0.04493561443755361</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1536526666666667</v>
+        <v>0.361994</v>
       </c>
       <c r="N13">
-        <v>0.460958</v>
+        <v>1.085982</v>
       </c>
       <c r="O13">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="P13">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="Q13">
-        <v>34.03274491956156</v>
+        <v>103.2941395067287</v>
       </c>
       <c r="R13">
-        <v>306.294704276054</v>
+        <v>929.6472555605579</v>
       </c>
       <c r="S13">
-        <v>4.850146294350602E-05</v>
+        <v>0.0001407778041762908</v>
       </c>
       <c r="T13">
-        <v>4.850146294350601E-05</v>
+        <v>0.0001407778041762908</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.018774</v>
+        <v>3.074321666666667</v>
       </c>
       <c r="H14">
-        <v>3.056322</v>
+        <v>9.222965</v>
       </c>
       <c r="I14">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="J14">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.4763</v>
+        <v>1.728078666666667</v>
       </c>
       <c r="N14">
-        <v>4.428900000000001</v>
+        <v>5.184236</v>
       </c>
       <c r="O14">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401176</v>
       </c>
       <c r="P14">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401175</v>
       </c>
       <c r="Q14">
-        <v>1.5040160562</v>
+        <v>5.312669686637778</v>
       </c>
       <c r="R14">
-        <v>13.5361445058</v>
+        <v>47.81402717974</v>
       </c>
       <c r="S14">
-        <v>2.143435070801281E-06</v>
+        <v>7.240546040369407E-06</v>
       </c>
       <c r="T14">
-        <v>2.143435070801281E-06</v>
+        <v>7.240546040369406E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.018774</v>
+        <v>3.074321666666667</v>
       </c>
       <c r="H15">
-        <v>3.056322</v>
+        <v>9.222965</v>
       </c>
       <c r="I15">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="J15">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>234.515686</v>
       </c>
       <c r="O15">
-        <v>0.6983045082736508</v>
+        <v>0.6765388985664503</v>
       </c>
       <c r="P15">
-        <v>0.6983045082736506</v>
+        <v>0.6765388985664502</v>
       </c>
       <c r="Q15">
-        <v>79.63949449632133</v>
+        <v>240.3255515476656</v>
       </c>
       <c r="R15">
-        <v>716.7554504668919</v>
+        <v>2162.92996392899</v>
       </c>
       <c r="S15">
-        <v>0.0001134975154158868</v>
+        <v>0.0003275355561883787</v>
       </c>
       <c r="T15">
-        <v>0.0001134975154158868</v>
+        <v>0.0003275355561883786</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.018774</v>
+        <v>3.074321666666667</v>
       </c>
       <c r="H16">
-        <v>3.056322</v>
+        <v>9.222965</v>
       </c>
       <c r="I16">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="J16">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>32.14343433333334</v>
+        <v>35.284818</v>
       </c>
       <c r="N16">
-        <v>96.43030300000001</v>
+        <v>105.854454</v>
       </c>
       <c r="O16">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="P16">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="Q16">
-        <v>32.74689516950733</v>
+        <v>108.47688048179</v>
       </c>
       <c r="R16">
-        <v>294.722056525566</v>
+        <v>976.29192433611</v>
       </c>
       <c r="S16">
-        <v>4.666894563846418E-05</v>
+        <v>0.0001478412726128142</v>
       </c>
       <c r="T16">
-        <v>4.666894563846418E-05</v>
+        <v>0.0001478412726128142</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.018774</v>
+        <v>3.074321666666667</v>
       </c>
       <c r="H17">
-        <v>3.056322</v>
+        <v>9.222965</v>
       </c>
       <c r="I17">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="J17">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1536526666666667</v>
+        <v>0.361994</v>
       </c>
       <c r="N17">
-        <v>0.460958</v>
+        <v>1.085982</v>
       </c>
       <c r="O17">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="P17">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="Q17">
-        <v>0.1565373418306667</v>
+        <v>1.112885997403333</v>
       </c>
       <c r="R17">
-        <v>1.408836076476</v>
+        <v>10.01597397663</v>
       </c>
       <c r="S17">
-        <v>2.230877968268457E-07</v>
+        <v>1.516733163770409E-06</v>
       </c>
       <c r="T17">
-        <v>2.230877968268457E-07</v>
+        <v>1.516733163770409E-06</v>
       </c>
     </row>
   </sheetData>
